--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R148b0d97466b4c75"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R78c80112f89b4df8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R78c80112f89b4df8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R6bd373b91a0e4c48"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R6bd373b91a0e4c48"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Rf86d611de9b749dd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Rf86d611de9b749dd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Redcb7f10c4294e34"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Redcb7f10c4294e34"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R1b1d2835395a4123"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R1b1d2835395a4123"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R7cd9dffd922c4253"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R7cd9dffd922c4253"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R5939023570cd4850"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R5939023570cd4850"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Rad21885e577d4007"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Rad21885e577d4007"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R3dc4fd7bbb1d4246"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R3dc4fd7bbb1d4246"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Ra7da33b5caa140cd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Ra7da33b5caa140cd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Rae0c5783788c4da2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Rae0c5783788c4da2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Ra7d185f1f5a6498b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Ra7d185f1f5a6498b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Rd0bb7f01c4ef44a9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Rd0bb7f01c4ef44a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R32687e8709d940f6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R32687e8709d940f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Rdd89a98a137f456d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Rdd89a98a137f456d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Re5ad0a81acaa489a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Re5ad0a81acaa489a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Re93c37fb6c84498b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/68_JsonConditionalStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="Re93c37fb6c84498b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders with Styling" sheetId="1" r:id="R48585e85103f47a0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
